--- a/init.xlsx
+++ b/init.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>Test Settings (read this into RTlab)</t>
   </si>
@@ -54,9 +54,6 @@
     <t>for internal use, used by results tracking tool</t>
   </si>
   <si>
-    <t>kgains type (ZN or new method)</t>
-  </si>
-  <si>
     <t>index number (internl use)</t>
   </si>
   <si>
@@ -66,74 +63,168 @@
     <t>format: HH:MM-HH:MM, hours must be according to 24-hour clock (i.e. for full day set end time as 23:59)</t>
   </si>
   <si>
-    <t>"sysID" or "ZN"</t>
-  </si>
-  <si>
     <t>645/P1,645/Q1</t>
   </si>
   <si>
     <t>675/P1,675/P2,675/P3,675/Q1,675/Q2,675/Q3</t>
   </si>
   <si>
+    <t>633_a,633_b,633_c</t>
+  </si>
+  <si>
+    <t>Adam1</t>
+  </si>
+  <si>
+    <t>actuator limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no spaces, use comma for delimiter, order of specification doesn’t matter, this is bus </t>
+  </si>
+  <si>
+    <t>no spaces, use comma for delimiter, order of specification doesn’t matter, this is load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no spaces, use comma for delimiter, order of specification doesn’t matter, this is load </t>
+  </si>
+  <si>
     <t>9:00-9:05</t>
   </si>
   <si>
-    <t>633_a,633_b,633_c</t>
-  </si>
-  <si>
-    <t>Adam1</t>
-  </si>
-  <si>
-    <t>actuator limits</t>
+    <t>16:00-16:05</t>
+  </si>
+  <si>
+    <t>sim1_1.mat</t>
+  </si>
+  <si>
+    <t>632_a,632_b,632_c</t>
+  </si>
+  <si>
+    <t>13:00-14:00</t>
+  </si>
+  <si>
+    <t>sim2_1.mat</t>
+  </si>
+  <si>
+    <t>671/P1,671/P2,671/P3,671/Q1,671/Q2,671/Q3</t>
+  </si>
+  <si>
+    <t>692/P1,692/Q1</t>
+  </si>
+  <si>
+    <t>sim3_1.mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">671_a,671_b,671_c
+</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
   <si>
     <t>1_1</t>
   </si>
   <si>
-    <t>632_a,632_b,632_c</t>
-  </si>
-  <si>
-    <t>13:00-14:00</t>
-  </si>
-  <si>
-    <t>300033983_A,300033983_B,300033983_C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no spaces, use comma for delimiter, order of specification doesn’t matter, this is bus </t>
-  </si>
-  <si>
-    <t>no spaces, use comma for delimiter, order of specification doesn’t matter, this is load</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no spaces, use comma for delimiter, order of specification doesn’t matter, this is load </t>
-  </si>
-  <si>
-    <t>300053280/P1,300053280/Q1</t>
-  </si>
-  <si>
-    <t>300018096/P1,300018096/P2,300018096/P3,300018096/Q1,300018096/Q2,300018096/Q3</t>
-  </si>
-  <si>
-    <t>0:00-0:05</t>
-  </si>
-  <si>
     <t>2_1</t>
   </si>
   <si>
-    <t>sim2_1.mat</t>
-  </si>
-  <si>
-    <t>692/P1,692/Q1</t>
-  </si>
-  <si>
-    <t>671/P1,671/P2,671/P3,671/Q1,671/Q2,671/Q3</t>
+    <t xml:space="preserve">3_1 </t>
+  </si>
+  <si>
+    <t>sim9.mat</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>choose 1</t>
+  </si>
+  <si>
+    <t>T3_1.mat</t>
+  </si>
+  <si>
+    <t>T3.1</t>
+  </si>
+  <si>
+    <t>12:00-12:06</t>
+  </si>
+  <si>
+    <t>33/P1,33/Q1</t>
+  </si>
+  <si>
+    <t>33_a,33_b,33_c</t>
+  </si>
+  <si>
+    <t>611/P1,611/Q1</t>
+  </si>
+  <si>
+    <t>675/P1,675/Q1</t>
+  </si>
+  <si>
+    <t>675_a,675_b,675_c</t>
+  </si>
+  <si>
+    <t>12:00-13:00</t>
+  </si>
+  <si>
+    <t>T3.1 (old)</t>
+  </si>
+  <si>
+    <t>T3.2</t>
+  </si>
+  <si>
+    <t>T3_2.mat</t>
+  </si>
+  <si>
+    <t>675/P1,675/P2,675/Q1,675/Q2</t>
+  </si>
+  <si>
+    <t>T3.3</t>
+  </si>
+  <si>
+    <t>T3_3.mat</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performance node indices that acutation is on </t>
+  </si>
+  <si>
+    <t>Must be the same length as the number of P's in the actuation node (eg. P1, P2 == 1, 2). Example: "1,2" indicates that the first two indices from "XXX_a XXX_b XXX_c" should be used for actuation</t>
+  </si>
+  <si>
+    <t>T4.1</t>
+  </si>
+  <si>
+    <t>T4_1.mat</t>
+  </si>
+  <si>
+    <t>671_a,671_b,671_c</t>
+  </si>
+  <si>
+    <t>671/P1,652/P1,692/P1,671/Q1,652/Q1,692/Q1</t>
+  </si>
+  <si>
+    <t>692_a,652_a,671_a,671_b,671_c</t>
+  </si>
+  <si>
+    <t>choose 1,2, or 3 for "way 1" 'way2" or "way3"</t>
+  </si>
+  <si>
+    <t>kgains type,</t>
+  </si>
+  <si>
+    <t>units: kW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +241,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,8 +276,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -211,21 +307,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -304,6 +385,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -313,17 +422,71 @@
       <top style="medium">
         <color rgb="FF999999"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF999999"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF999999"/>
+        <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF999999"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FF999999"/>
@@ -337,12 +500,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -351,48 +514,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -403,26 +542,88 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -705,45 +906,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="6" width="16.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="51" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="4" width="16.46484375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.73046875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.53125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="51" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.46484375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="14.65" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="21"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28.9" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>3</v>
@@ -755,40 +960,48 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>19</v>
+      <c r="J2" s="14" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="85.9" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.9" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="8">
         <v>2</v>
@@ -798,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9">
-        <f t="shared" ref="D4:I4" si="0">C4+1</f>
+        <f t="shared" ref="D4:J4" si="0">C4+1</f>
         <v>4</v>
       </c>
       <c r="E4" s="9">
@@ -810,185 +1023,333 @@
         <v>6</v>
       </c>
       <c r="G4" s="9">
+        <f>F4+1</f>
+        <v>7</v>
+      </c>
+      <c r="H4" s="9">
+        <v>8</v>
+      </c>
+      <c r="I4" s="9">
+        <v>9</v>
+      </c>
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H4" s="9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I4" s="9">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>18</v>
+    <row r="5" spans="1:11" ht="29.2" customHeight="1" thickBot="1">
+      <c r="A5" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>0.5</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>16</v>
+      <c r="D5" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>CONCATENATE("sim",A5,"_way",B5,".mat")</f>
         <v>simAdam1_way1.mat</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I5">
+      <c r="G5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5">
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" spans="1:11" ht="36" customHeight="1" thickBot="1">
+      <c r="A6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="22">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="23">
         <v>0.5</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.65" thickBot="1">
+      <c r="A7" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="25">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="31">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28.9" thickBot="1">
+      <c r="A8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="25">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="4" t="str">
-        <f>CONCATENATE("sim",A6,"_way",B6,".mat")</f>
-        <v>sim1_1_way1.mat</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="4">
-        <v>100</v>
+      <c r="G8" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="31">
+        <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="9" spans="1:11" ht="14.65" thickBot="1">
+      <c r="A9" s="21">
         <v>9</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B9" s="22">
         <v>1</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C9" s="23">
         <v>0.5</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f>CONCATENATE("sim",A7,"_way",B7,".mat")</f>
-        <v>sim9_way1.mat</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="D9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="29">
         <v>10000</v>
       </c>
+      <c r="K9" s="15"/>
     </row>
-    <row r="8" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="24">
+    <row r="10" spans="1:11" ht="14.65" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="33">
         <v>1</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C10" s="36">
         <v>0.5</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="27">
-        <v>500</v>
+      <c r="D10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="35">
+        <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
+    <row r="11" spans="1:11" ht="14.65" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="33">
+        <v>3</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="40">
+        <v>1</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="39">
+        <v>420</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+    <row r="12" spans="1:11" ht="14.65" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="38">
+        <v>420</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+    <row r="13" spans="1:11" ht="14.65" thickBot="1">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0.35</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J13" s="38">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+    <row r="14" spans="1:11" ht="14.65" thickBot="1">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1</v>
+      </c>
+      <c r="C14" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="38">
+        <v>600</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1001,7 +1362,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/init.xlsx
+++ b/init.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>Test Settings (read this into RTlab)</t>
   </si>
@@ -145,9 +145,6 @@
     <t>T3.1</t>
   </si>
   <si>
-    <t>12:00-12:06</t>
-  </si>
-  <si>
     <t>33/P1,33/Q1</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>12:00-13:00</t>
   </si>
   <si>
-    <t>T3.1 (old)</t>
-  </si>
-  <si>
     <t>T3.2</t>
   </si>
   <si>
@@ -218,6 +212,114 @@
   </si>
   <si>
     <t>units: kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T3.2_unbalanced </t>
+  </si>
+  <si>
+    <t>T3.2_unbalanced.mat</t>
+  </si>
+  <si>
+    <t>652/P1,652/Q1</t>
+  </si>
+  <si>
+    <t>12:00-12:05</t>
+  </si>
+  <si>
+    <t>T3_1_33.mat</t>
+  </si>
+  <si>
+    <t>PlotLocalControl1</t>
+  </si>
+  <si>
+    <t>kgains</t>
+  </si>
+  <si>
+    <t>T3.1_33abc</t>
+  </si>
+  <si>
+    <t>T3.1_33a</t>
+  </si>
+  <si>
+    <t>33/P1,33/Q1,33/P2,33/Q2,33/P3,33/Q3</t>
+  </si>
+  <si>
+    <t>6_a,6_b,6_c</t>
+  </si>
+  <si>
+    <t>T3.1_33b</t>
+  </si>
+  <si>
+    <t>T3_1_33b.mat</t>
+  </si>
+  <si>
+    <t>33/P2,33/Q2</t>
+  </si>
+  <si>
+    <t>33/P3,33/Q3</t>
+  </si>
+  <si>
+    <t>T3_1_33c.mat</t>
+  </si>
+  <si>
+    <t>T3.1_33c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ku = 5, Tu = 2; Ku = 0 Tu=2 </t>
+  </si>
+  <si>
+    <t>PlotLocalControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ku = 5, Tu = 1; Ku = 0 Tu=2 </t>
+  </si>
+  <si>
+    <t>T3.1_33ab</t>
+  </si>
+  <si>
+    <t>T3_1_33ab.mat</t>
+  </si>
+  <si>
+    <t>33/P1,33/Q1,33/P2,33/Q2</t>
+  </si>
+  <si>
+    <t>T3.1_33bc</t>
+  </si>
+  <si>
+    <t>T3_1_33bc.mat</t>
+  </si>
+  <si>
+    <t>33/P2,33/Q2,33/P3,33/Q3</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>T3.1_33ac</t>
+  </si>
+  <si>
+    <t>T3_1_33ac.mat</t>
+  </si>
+  <si>
+    <t>33/P1,33/Q1,33/P3,33/Q3</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>test idx</t>
+  </si>
+  <si>
+    <t>ku=0.5,Tu=2;Ku=0.02,Tu=2</t>
+  </si>
+  <si>
+    <t>same as T3.2^</t>
+  </si>
+  <si>
+    <t>T5.1</t>
+  </si>
+  <si>
+    <t>T5_1.mat</t>
   </si>
 </sst>
 </file>
@@ -500,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -619,6 +721,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -906,43 +1011,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="16.46484375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.73046875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="38.53125" style="4" customWidth="1"/>
+    <col min="1" max="4" width="16.36328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.6328125" style="4" customWidth="1"/>
     <col min="7" max="8" width="51" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.46484375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.19921875" style="4"/>
+    <col min="9" max="9" width="43.54296875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.65" thickBot="1">
+    <row r="1" spans="1:16" ht="15" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="28.9" thickBot="1">
+    <row r="2" spans="1:16" ht="29.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
@@ -960,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>6</v>
@@ -968,13 +1073,19 @@
       <c r="J2" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="85.9" thickBot="1">
+      <c r="K2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="102" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
@@ -990,16 +1101,19 @@
         <v>18</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.9" thickBot="1">
+        <v>61</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="29.5" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29.2" customHeight="1" thickBot="1">
+    <row r="5" spans="1:16" ht="29.25" customHeight="1" thickBot="1">
       <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
@@ -1060,15 +1174,20 @@
       <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="I5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="J5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1" thickBot="1">
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="21" t="s">
         <v>31</v>
       </c>
@@ -1087,18 +1206,24 @@
       <c r="F6" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="30"/>
+      <c r="G6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="I6" s="30" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.65" thickBot="1">
+        <v>10000</v>
+      </c>
+      <c r="P6" s="4">
+        <f>P5+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1">
       <c r="A7" s="21" t="s">
         <v>32</v>
       </c>
@@ -1120,15 +1245,21 @@
       <c r="G7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="32"/>
+      <c r="H7" s="32" t="s">
+        <v>51</v>
+      </c>
       <c r="I7" s="32" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="31">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="28.9" thickBot="1">
+      <c r="P7" s="4">
+        <f t="shared" ref="P7:P25" si="1">P6+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="29.5" thickBot="1">
       <c r="A8" s="21" t="s">
         <v>33</v>
       </c>
@@ -1150,15 +1281,21 @@
       <c r="G8" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="32"/>
+      <c r="H8" s="32" t="s">
+        <v>51</v>
+      </c>
       <c r="I8" s="32" t="s">
         <v>30</v>
       </c>
       <c r="J8" s="31">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="14.65" thickBot="1">
+      <c r="P8" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1">
       <c r="A9" s="21">
         <v>9</v>
       </c>
@@ -1188,10 +1325,14 @@
         <v>10000</v>
       </c>
       <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.65" thickBot="1">
+      <c r="P9" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B10" s="33">
         <v>1</v>
@@ -1200,60 +1341,73 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="40">
+        <v>1</v>
+      </c>
       <c r="I10" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="35">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.65" thickBot="1">
+      <c r="K10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="36">
         <v>0.35</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H11" s="40">
         <v>1</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J11" s="39">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.65" thickBot="1">
+        <v>500</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1">
       <c r="A12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="10">
         <v>1</v>
@@ -1262,30 +1416,37 @@
         <v>0.35</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="38">
+        <v>500</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1">
+      <c r="A13" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="38">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="14.65" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="B13" s="10">
         <v>1</v>
@@ -1294,30 +1455,37 @@
         <v>0.35</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J13" s="38">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.65" thickBot="1">
+        <v>500</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1">
       <c r="A14" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="10">
         <v>1</v>
@@ -1326,25 +1494,347 @@
         <v>0.5</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>59</v>
-      </c>
       <c r="H14" s="40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" s="38">
         <v>600</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1">
+      <c r="A15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="38">
+        <v>10000</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="33">
+        <v>1</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="35">
+        <v>10000</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="33">
+        <v>1</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="40">
+        <v>3</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="35">
+        <v>10000</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1">
+      <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="33">
+        <v>1</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="40">
+        <v>2</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="35">
+        <v>10000</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" thickBot="1">
+      <c r="A19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="33">
+        <v>1</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="35">
+        <v>10000</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="33">
+        <v>1</v>
+      </c>
+      <c r="C20" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="35">
+        <v>10000</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="33">
+        <v>1</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="35">
+        <v>10000</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4">
+        <v>510</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="P23" s="4">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="P24" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="P25" s="4">
+        <f t="shared" si="1"/>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/init.xlsx
+++ b/init.xlsx
@@ -24,8 +24,162 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Jaimie.Swartz</author>
+  </authors>
+  <commentList>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+used to be 633</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+used to be 633</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+used to be 633</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+used to be 633</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+used to be 633</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+used to be 633</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="127">
   <si>
     <t>Test Settings (read this into RTlab)</t>
   </si>
@@ -76,12 +230,6 @@
   </si>
   <si>
     <t>actuator limits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no spaces, use comma for delimiter, order of specification doesn’t matter, this is bus </t>
-  </si>
-  <si>
-    <t>no spaces, use comma for delimiter, order of specification doesn’t matter, this is load</t>
   </si>
   <si>
     <t xml:space="preserve">no spaces, use comma for delimiter, order of specification doesn’t matter, this is load </t>
@@ -139,12 +287,6 @@
     <t>choose 1</t>
   </si>
   <si>
-    <t>T3_1.mat</t>
-  </si>
-  <si>
-    <t>T3.1</t>
-  </si>
-  <si>
     <t>33/P1,33/Q1</t>
   </si>
   <si>
@@ -163,30 +305,15 @@
     <t>12:00-13:00</t>
   </si>
   <si>
-    <t>T3.2</t>
-  </si>
-  <si>
-    <t>T3_2.mat</t>
-  </si>
-  <si>
     <t>675/P1,675/P2,675/Q1,675/Q2</t>
   </si>
   <si>
-    <t>T3.3</t>
-  </si>
-  <si>
-    <t>T3_3.mat</t>
-  </si>
-  <si>
     <t>1,2</t>
   </si>
   <si>
     <t>1,2,3</t>
   </si>
   <si>
-    <t xml:space="preserve">performance node indices that acutation is on </t>
-  </si>
-  <si>
     <t>Must be the same length as the number of P's in the actuation node (eg. P1, P2 == 1, 2). Example: "1,2" indicates that the first two indices from "XXX_a XXX_b XXX_c" should be used for actuation</t>
   </si>
   <si>
@@ -199,12 +326,6 @@
     <t>671_a,671_b,671_c</t>
   </si>
   <si>
-    <t>671/P1,652/P1,692/P1,671/Q1,652/Q1,692/Q1</t>
-  </si>
-  <si>
-    <t>692_a,652_a,671_a,671_b,671_c</t>
-  </si>
-  <si>
     <t>choose 1,2, or 3 for "way 1" 'way2" or "way3"</t>
   </si>
   <si>
@@ -310,23 +431,143 @@
     <t>test idx</t>
   </si>
   <si>
-    <t>ku=0.5,Tu=2;Ku=0.02,Tu=2</t>
-  </si>
-  <si>
     <t>same as T3.2^</t>
   </si>
   <si>
     <t>T5.1</t>
   </si>
   <si>
-    <t>T5_1.mat</t>
+    <t>671/P1,671/Q1</t>
+  </si>
+  <si>
+    <t>652/P1,692/P1,652/Q1,692/Q1</t>
+  </si>
+  <si>
+    <t>ku=1.5,Tu=2;Ku=0.06,Tu=2</t>
+  </si>
+  <si>
+    <t>Adam2</t>
+  </si>
+  <si>
+    <t>646/P1,646/Q1</t>
+  </si>
+  <si>
+    <t>632/P1,632/P2,632/P3,632/Q1,632/Q2,632/Q3</t>
+  </si>
+  <si>
+    <t>645/P1,645/P2,645/P3,645/Q1,645/Q2,645/Q3</t>
+  </si>
+  <si>
+    <t>Adam3</t>
+  </si>
+  <si>
+    <t>Sim 20</t>
+  </si>
+  <si>
+    <t>Sim 1</t>
+  </si>
+  <si>
+    <t>ku=7.25,Tu=2.2;Ku=0.125,Tu=2</t>
+  </si>
+  <si>
+    <t>T5_1_way3.mat</t>
+  </si>
+  <si>
+    <t>T3.1_way3</t>
+  </si>
+  <si>
+    <t>T3_1_way3.mat</t>
+  </si>
+  <si>
+    <t>T3.2_way3</t>
+  </si>
+  <si>
+    <t>T3.3_way3</t>
+  </si>
+  <si>
+    <t>T3_2_way3.mat</t>
+  </si>
+  <si>
+    <t>T3_3_way3.mat</t>
+  </si>
+  <si>
+    <t>T4.3</t>
+  </si>
+  <si>
+    <t>T4_3.mat</t>
+  </si>
+  <si>
+    <t>671/P1,671/Q1,692/P1,692/Q1,652/P1,652/Q1</t>
+  </si>
+  <si>
+    <t>671_a,671_a,671_a,671_b,671_c</t>
+  </si>
+  <si>
+    <t>0:00-0:05</t>
+  </si>
+  <si>
+    <t>300053281/P1,300053281/Q1,300053281/P2,300053281/Q2,300053281/P3,300053281/Q3</t>
+  </si>
+  <si>
+    <t>300063907/P1,300063907/Q1,300063907/P2,300063907/Q2,300063907/P3,300063907/Q3</t>
+  </si>
+  <si>
+    <t>300053281_A,300053281_B,300053281_C</t>
+  </si>
+  <si>
+    <t>PL0001_1</t>
+  </si>
+  <si>
+    <t>PL0001_2</t>
+  </si>
+  <si>
+    <t>300053281/P2,300053281/Q2,300053281/P3,300053281/Q3</t>
+  </si>
+  <si>
+    <t>PL0001_3</t>
+  </si>
+  <si>
+    <t>300053286/P1,300053286/Q1,300053286/P2,300053286/Q2,300053286/P3,300053286/Q3</t>
+  </si>
+  <si>
+    <t>671/P1,671/Q1,671/P2,671/Q2,671/P3,671/Q3</t>
+  </si>
+  <si>
+    <t>15:00-15:05</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>performance node indices that acutation is on (motivated by T4.1 where we want 3 controllers on phA), usually count up through all perf nodes 1,2,…</t>
+  </si>
+  <si>
+    <t>no spaces, use comma for delimiter, order of specification DOES matter (for matching with act node numbers)</t>
+  </si>
+  <si>
+    <t>no spaces, use comma for delimiter, order of specification DOES matter (for matching with perf node numbers), collect all P's first then all Qs</t>
+  </si>
+  <si>
+    <t>634/P1,634/Q1,634/P2,634/Q2,634/P3,634/Q3,671/P1,671/Q1,671/P2,671/Q2,671/P3,671/Q3,675/P1,675/Q1,675/P2,675/Q2,675/P3,675/Q3,632/P1,632/Q1,632/P2,632/Q2,632/P3,632/Q3,645/P1,645/Q1,646/P1,646/Q1,652/P1,652/Q1,692/P1,692/Q1,611/P1,611/Q1</t>
+  </si>
+  <si>
+    <t>twoPerf.mat</t>
+  </si>
+  <si>
+    <t>two_perf</t>
+  </si>
+  <si>
+    <t>675_a,675_b,675_c,632_a,632_b,632_c</t>
+  </si>
+  <si>
+    <t>675/P1,675/P2,675/P3,632/P1,632/P2,632/P3,675/Q1,675/Q2,675/Q3,632/Q1,632/Q2,632/Q3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +587,21 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,12 +622,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,6 +629,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,7 +874,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -631,100 +903,133 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -746,6 +1051,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>70972</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>246760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24073972" y="2453012"/>
+          <a:ext cx="1445788" cy="919956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638737</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>61634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>411205</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>231591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24518472" y="6275296"/>
+          <a:ext cx="1722292" cy="1070162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1010,44 +1396,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="16.36328125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="38.6328125" style="4" customWidth="1"/>
+    <col min="1" max="4" width="16.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" style="4" customWidth="1"/>
     <col min="7" max="8" width="51" style="4" customWidth="1"/>
-    <col min="9" max="9" width="43.54296875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.08984375" style="4"/>
+    <col min="9" max="9" width="43.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" ht="29.5" thickBot="1">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" ht="45.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
@@ -1065,27 +1451,27 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="11" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="102" thickBot="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="120.75" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
@@ -1095,25 +1481,25 @@
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>61</v>
+      <c r="J3" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="29.5" thickBot="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="30.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1151,71 +1537,77 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:18" ht="29.25" customHeight="1" thickBot="1">
+      <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="17">
-        <v>1</v>
-      </c>
-      <c r="C5" s="18">
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15">
         <v>0.5</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f>CONCATENATE("sim",A5,"_way",B5,".mat")</f>
-        <v>simAdam1_way1.mat</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="D5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="17" t="str">
+        <f>CONCATENATE("sim",A5,"_pbcCtrl")</f>
+        <v>simAdam1_pbcCtrl</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5">
+      <c r="H5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="20">
         <v>10000</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="P5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="36" customHeight="1" thickBot="1">
-      <c r="A6" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="22">
+      <c r="R5" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="36" customHeight="1" thickBot="1">
+      <c r="A6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="38">
         <v>1</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="39">
         <v>0.5</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="30" t="s">
+      <c r="G6" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="31">
+      <c r="J6" s="22">
         <v>10000</v>
       </c>
       <c r="P6" s="4">
@@ -1223,71 +1615,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1">
-      <c r="A7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="25">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A7" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="42">
         <v>1</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="43">
         <v>0.5</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="H7" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="32" t="s">
+      <c r="J7" s="22">
+        <v>600</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" ref="P7:P14" si="1">P6+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="30.75" thickBot="1">
+      <c r="A8" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="42">
+        <v>1</v>
+      </c>
+      <c r="C8" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="32" t="s">
+      <c r="F8" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="31">
-        <v>600</v>
-      </c>
-      <c r="P7" s="4">
-        <f t="shared" ref="P7:P25" si="1">P6+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="29.5" thickBot="1">
-      <c r="A8" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="25">
-        <v>1</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="27" t="s">
+      <c r="G8" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="H8" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="31">
+      <c r="J8" s="22">
         <v>600</v>
       </c>
       <c r="P8" s="4">
@@ -1295,546 +1687,840 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1">
-      <c r="A9" s="21">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A9" s="37">
         <v>9</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="38">
         <v>1</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="39">
         <v>0.5</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="D9" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="29">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="45">
         <v>10000</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="12"/>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1">
-      <c r="A10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="33">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="27">
         <v>1</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="28">
         <v>0.5</v>
       </c>
-      <c r="D10" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="34" t="s">
+      <c r="D10" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="40">
+      <c r="E10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="30">
         <v>1</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="35">
+      <c r="I10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="31">
         <v>10000</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>67</v>
+      <c r="K10" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A11" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="27">
+        <v>3</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.35</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="33">
+      <c r="H11" s="30">
         <v>1</v>
       </c>
-      <c r="C11" s="36">
-        <v>0.35</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="34" t="s">
+      <c r="I11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="40">
-        <v>1</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="39">
+      <c r="J11" s="32">
         <v>500</v>
       </c>
+      <c r="K11" s="26"/>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1">
-      <c r="A12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1</v>
-      </c>
-      <c r="C12" s="37">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A12" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="33">
+        <v>3</v>
+      </c>
+      <c r="C12" s="34">
         <v>0.35</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="34" t="s">
+      <c r="D12" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="38">
+      <c r="H12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="35">
         <v>500</v>
       </c>
+      <c r="K12" s="26"/>
       <c r="M12" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1">
-      <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1</v>
-      </c>
-      <c r="C13" s="37">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A13" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="33">
+        <v>3</v>
+      </c>
+      <c r="C13" s="34">
         <v>0.35</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="34" t="s">
+      <c r="D13" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="38">
+      <c r="H13" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="35">
         <v>500</v>
       </c>
+      <c r="K13" s="26"/>
       <c r="M13" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1">
-      <c r="A14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14" s="38">
-        <v>600</v>
-      </c>
+    <row r="14" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="33">
+        <v>3</v>
+      </c>
+      <c r="C14" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="35">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="26"/>
       <c r="P14" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="33">
+        <v>3</v>
+      </c>
+      <c r="C15" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="35">
+        <v>10000</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="P15" s="4">
+        <f>P14+1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J16" s="24">
+        <v>10000</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="P16" s="4">
+        <f t="shared" ref="P16:P32" si="2">P15+1</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A17" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="27">
+        <v>1</v>
+      </c>
+      <c r="C17" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" s="31">
+        <v>10000</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A18" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="27">
+        <v>1</v>
+      </c>
+      <c r="C18" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="30">
+        <v>3</v>
+      </c>
+      <c r="I18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="31">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A19" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B19" s="27">
         <v>1</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C19" s="28">
         <v>0.5</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="34" t="s">
+      <c r="F19" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="30">
+        <v>2</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="31">
+        <v>10000</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="P19" s="4">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A20" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="27">
+        <v>1</v>
+      </c>
+      <c r="C20" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" s="31">
+        <v>10000</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="P20" s="4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A21" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="27">
+        <v>1</v>
+      </c>
+      <c r="C21" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="31">
+        <v>10000</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="P21" s="4">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A22" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="27">
+        <v>1</v>
+      </c>
+      <c r="C22" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22" s="31">
+        <v>10000</v>
+      </c>
+      <c r="K22" s="26"/>
+      <c r="P22" s="4">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="26">
+        <v>3</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0.35</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="38">
+      <c r="G23" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="26">
+        <v>500</v>
+      </c>
+      <c r="K23" s="26"/>
+      <c r="P23" s="4">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="14">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="17" t="str">
+        <f>CONCATENATE("sim",A24,"_way",B24,".mat")</f>
+        <v>simAdam2_way3.mat</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="20">
         <v>10000</v>
       </c>
-      <c r="P15" s="4">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1">
-      <c r="A16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="33">
+      <c r="P24" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A25" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="17" t="str">
+        <f>CONCATENATE("sim",A25,"_way",B25,".mat")</f>
+        <v>simAdam3_way3.mat</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="20">
+        <v>10000</v>
+      </c>
+      <c r="P25" s="4">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="30.75" thickBot="1">
+      <c r="A26" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="49">
         <v>1</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C26" s="50">
         <v>0.5</v>
       </c>
-      <c r="D16" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="34" t="s">
+      <c r="D26" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="49" t="str">
+        <f>CONCATENATE("sim",A26,"_way",B26,".mat")</f>
+        <v>simPL0001_1_way1.mat</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="54">
+        <v>100000</v>
+      </c>
+      <c r="P26" s="4">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="30.75" thickBot="1">
+      <c r="A27" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="49">
+        <v>3</v>
+      </c>
+      <c r="C27" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="49" t="str">
+        <f>CONCATENATE("sim",A27,"_way",B27,".mat")</f>
+        <v>simPL0001_2_way3.mat</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="54">
+        <v>100000</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="30.75" thickBot="1">
+      <c r="A28" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="49">
+        <v>1</v>
+      </c>
+      <c r="C28" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E28" s="49" t="str">
+        <f>CONCATENATE("sim",A28,"_way",B28,".mat")</f>
+        <v>simPL0001_3_way1.mat</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="54">
+        <v>100000</v>
+      </c>
+      <c r="P28" s="4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="90.75" thickBot="1">
+      <c r="A29" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="42">
+        <v>3</v>
+      </c>
+      <c r="C29" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="35">
-        <v>10000</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1">
-      <c r="A17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="33">
-        <v>1</v>
-      </c>
-      <c r="C17" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="40">
-        <v>3</v>
-      </c>
-      <c r="I17" s="34" t="s">
+      <c r="G29" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="54">
+        <v>100000</v>
+      </c>
+      <c r="P29" s="4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" thickBot="1">
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="P30" s="4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="30.75" thickBot="1">
+      <c r="F31" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="47"/>
+      <c r="P31" s="4">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="15.75" thickBot="1">
+      <c r="F32" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="J17" s="35">
-        <v>10000</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="1"/>
+      <c r="G32" s="41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1">
-      <c r="A18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="33">
-        <v>1</v>
-      </c>
-      <c r="C18" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="40">
-        <v>2</v>
-      </c>
-      <c r="I18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="35">
-        <v>10000</v>
-      </c>
-      <c r="P18" s="4">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1">
-      <c r="A19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="33">
-        <v>1</v>
-      </c>
-      <c r="C19" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" s="35">
-        <v>10000</v>
-      </c>
-      <c r="P19" s="4">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1">
-      <c r="A20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="33">
-        <v>1</v>
-      </c>
-      <c r="C20" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="35">
-        <v>10000</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1">
-      <c r="A21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="33">
-        <v>1</v>
-      </c>
-      <c r="C21" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="35">
-        <v>10000</v>
-      </c>
-      <c r="P21" s="4">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A22" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
-      </c>
-      <c r="C22" s="41">
-        <v>0.5</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="4">
-        <v>510</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="P23" s="4">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="P24" s="4">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="P25" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
+      <c r="H32" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="48"/>
+      <c r="P32" s="4">
+        <f t="shared" si="2"/>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1843,6 +2529,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1852,7 +2540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/init.xlsx
+++ b/init.xlsx
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
   <si>
     <t>Test Settings (read this into RTlab)</t>
   </si>
@@ -332,9 +332,6 @@
     <t>kgains type,</t>
   </si>
   <si>
-    <t>units: kW</t>
-  </si>
-  <si>
     <t xml:space="preserve">T3.2_unbalanced </t>
   </si>
   <si>
@@ -536,9 +533,6 @@
     <t>15:00-15:05</t>
   </si>
   <si>
-    <t>1,2,3,4,5,6</t>
-  </si>
-  <si>
     <t>performance node indices that acutation is on (motivated by T4.1 where we want 3 controllers on phA), usually count up through all perf nodes 1,2,…</t>
   </si>
   <si>
@@ -551,16 +545,49 @@
     <t>634/P1,634/Q1,634/P2,634/Q2,634/P3,634/Q3,671/P1,671/Q1,671/P2,671/Q2,671/P3,671/Q3,675/P1,675/Q1,675/P2,675/Q2,675/P3,675/Q3,632/P1,632/Q1,632/P2,632/Q2,632/P3,632/Q3,645/P1,645/Q1,646/P1,646/Q1,652/P1,652/Q1,692/P1,692/Q1,611/P1,611/Q1</t>
   </si>
   <si>
-    <t>twoPerf.mat</t>
-  </si>
-  <si>
-    <t>two_perf</t>
-  </si>
-  <si>
-    <t>675_a,675_b,675_c,632_a,632_b,632_c</t>
-  </si>
-  <si>
-    <t>675/P1,675/P2,675/P3,632/P1,632/P2,632/P3,675/Q1,675/Q2,675/Q3,632/Q1,632/Q2,632/Q3</t>
+    <t>ku=1.5,Tu=2.2;Ku=0.07,Tu=2</t>
+  </si>
+  <si>
+    <t>675_a,675_b,675_c,645_b,646_b,652_a,634_a,634_b,634_c,632_a,632_b,632_c,692_c</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>675/P1,675/P2,675/P3,645/P1,646/P1,652/P1,634/P1,634/P2,634/P3,632/P1,632/P2,632/P3,692/P1,675/Q1,675/Q2,675/Q3,645/Q1,646/Q1,652/Q1,634/Q1,634/Q2,634/Q3,632/Q1,632/Q2,632/Q3,692/Q1</t>
+  </si>
+  <si>
+    <t>PBC</t>
+  </si>
+  <si>
+    <t>noCtrl</t>
+  </si>
+  <si>
+    <t>VVC</t>
+  </si>
+  <si>
+    <t>dVVC</t>
+  </si>
+  <si>
+    <t>units: kW, per phase</t>
+  </si>
+  <si>
+    <t>multAct</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+  </si>
+  <si>
+    <t>634/P1,634/P2,634/P3,675/P1,675/P2,675/P3,652/P1,634/Q1,634/Q2,634/Q3,675/Q1,675/Q2,675/Q3,652/Q1</t>
+  </si>
+  <si>
+    <t>632_a,632_b,632_c,632_a,632_b,632_c,632_a</t>
+  </si>
+  <si>
+    <t>675/P1,675/P2,675/P3,645/P1,646/P1,652/P1,634/P1,634/P2,634/P3,632/P1,632/P2,632/P3,692/P1,611/P1,671/P1,671/P2,671/P3,675/Q1,675/Q2,675/Q3,645/Q1,646/Q1,652/Q1,634/Q1,634/Q2,634/Q3,632/Q1,632/Q2,632/Q3,692/Q1,611/Q1,671/Q1,671/Q2,671/Q3</t>
+  </si>
+  <si>
+    <t>if you want a full list of all actuators --&gt;</t>
   </si>
 </sst>
 </file>
@@ -601,7 +628,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,8 +683,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -870,11 +903,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF999999"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1030,11 +1104,70 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:H29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1416,16 +1549,16 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
       <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="45.75" thickBot="1">
@@ -1451,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>6</v>
@@ -1460,10 +1593,10 @@
         <v>16</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="120.75" thickBot="1">
@@ -1481,10 +1614,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>44</v>
@@ -1493,10 +1626,10 @@
         <v>17</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="30.75" thickBot="1">
@@ -1564,19 +1697,19 @@
         <v>43</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="20">
         <v>10000</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P5" s="4">
         <v>1</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="36" customHeight="1" thickBot="1">
@@ -1724,7 +1857,7 @@
     </row>
     <row r="10" spans="1:18" ht="15.75" thickBot="1">
       <c r="A10" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="27">
         <v>1</v>
@@ -1736,7 +1869,7 @@
         <v>40</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="29" t="s">
         <v>36</v>
@@ -1754,7 +1887,7 @@
         <v>10000</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
@@ -1763,7 +1896,7 @@
     </row>
     <row r="11" spans="1:18" ht="15.75" thickBot="1">
       <c r="A11" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="27">
         <v>3</v>
@@ -1775,7 +1908,7 @@
         <v>40</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>39</v>
@@ -1800,7 +1933,7 @@
     </row>
     <row r="12" spans="1:18" ht="15.75" thickBot="1">
       <c r="A12" s="26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="33">
         <v>3</v>
@@ -1812,7 +1945,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" s="29" t="s">
         <v>39</v>
@@ -1831,7 +1964,7 @@
       </c>
       <c r="K12" s="26"/>
       <c r="M12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
@@ -1840,7 +1973,7 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1">
       <c r="A13" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="33">
         <v>3</v>
@@ -1852,7 +1985,7 @@
         <v>40</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="29" t="s">
         <v>39</v>
@@ -1871,7 +2004,7 @@
       </c>
       <c r="K13" s="26"/>
       <c r="M13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
@@ -1895,16 +2028,16 @@
         <v>46</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" s="30" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J14" s="35">
         <v>10000</v>
@@ -1917,7 +2050,7 @@
     </row>
     <row r="15" spans="1:18" ht="15.75" thickBot="1">
       <c r="A15" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="33">
         <v>3</v>
@@ -1929,19 +2062,19 @@
         <v>40</v>
       </c>
       <c r="E15" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>104</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>105</v>
       </c>
       <c r="H15" s="30" t="s">
         <v>43</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" s="35">
         <v>10000</v>
@@ -1954,7 +2087,7 @@
     </row>
     <row r="16" spans="1:18" ht="15.75" thickBot="1">
       <c r="A16" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="17">
         <v>1</v>
@@ -1963,10 +2096,10 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>47</v>
@@ -1978,20 +2111,20 @@
         <v>42</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16" s="24">
         <v>10000</v>
       </c>
       <c r="K16" s="26"/>
       <c r="P16" s="4">
-        <f t="shared" ref="P16:P32" si="2">P15+1</f>
+        <f t="shared" ref="P16:P35" si="2">P15+1</f>
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="15.75" thickBot="1">
       <c r="A17" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="27">
         <v>1</v>
@@ -2003,13 +2136,13 @@
         <v>40</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>43</v>
@@ -2021,10 +2154,10 @@
         <v>10000</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P17" s="4">
         <f t="shared" si="2"/>
@@ -2033,7 +2166,7 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" thickBot="1">
       <c r="A18" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="27">
         <v>1</v>
@@ -2045,13 +2178,13 @@
         <v>40</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H18" s="30">
         <v>3</v>
@@ -2063,10 +2196,10 @@
         <v>10000</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P18" s="4">
         <f t="shared" si="2"/>
@@ -2075,7 +2208,7 @@
     </row>
     <row r="19" spans="1:18" ht="15.75" thickBot="1">
       <c r="A19" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="27">
         <v>1</v>
@@ -2087,13 +2220,13 @@
         <v>40</v>
       </c>
       <c r="E19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>63</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>64</v>
       </c>
       <c r="H19" s="30">
         <v>2</v>
@@ -2112,7 +2245,7 @@
     </row>
     <row r="20" spans="1:18" ht="15.75" thickBot="1">
       <c r="A20" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="27">
         <v>1</v>
@@ -2124,13 +2257,13 @@
         <v>40</v>
       </c>
       <c r="E20" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>72</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>73</v>
       </c>
       <c r="H20" s="30" t="s">
         <v>42</v>
@@ -2149,7 +2282,7 @@
     </row>
     <row r="21" spans="1:18" ht="15.75" thickBot="1">
       <c r="A21" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B21" s="27">
         <v>1</v>
@@ -2161,16 +2294,16 @@
         <v>40</v>
       </c>
       <c r="E21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="29" t="s">
+      <c r="H21" s="30" t="s">
         <v>76</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="I21" s="29" t="s">
         <v>35</v>
@@ -2186,7 +2319,7 @@
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1">
       <c r="A22" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="27">
         <v>1</v>
@@ -2198,16 +2331,16 @@
         <v>40</v>
       </c>
       <c r="E22" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="29" t="s">
+      <c r="H22" s="30" t="s">
         <v>80</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="I22" s="29" t="s">
         <v>35</v>
@@ -2223,7 +2356,7 @@
     </row>
     <row r="23" spans="1:18" ht="18.75" customHeight="1" thickBot="1">
       <c r="A23" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="26">
         <v>3</v>
@@ -2235,7 +2368,7 @@
         <v>40</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>47</v>
@@ -2260,7 +2393,7 @@
     </row>
     <row r="24" spans="1:18" ht="15.75" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="14">
         <v>3</v>
@@ -2279,13 +2412,13 @@
         <v>39</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H24" s="19" t="s">
         <v>43</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J24" s="20">
         <v>10000</v>
@@ -2295,12 +2428,12 @@
         <v>20</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" thickBot="1">
       <c r="A25" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="14">
         <v>3</v>
@@ -2319,13 +2452,13 @@
         <v>39</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H25" s="19" t="s">
         <v>43</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J25" s="20">
         <v>10000</v>
@@ -2337,7 +2470,7 @@
     </row>
     <row r="26" spans="1:18" ht="30.75" thickBot="1">
       <c r="A26" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="49">
         <v>1</v>
@@ -2346,23 +2479,23 @@
         <v>0.5</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="49" t="str">
         <f>CONCATENATE("sim",A26,"_way",B26,".mat")</f>
         <v>simPL0001_1_way1.mat</v>
       </c>
       <c r="F26" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="53" t="s">
         <v>43</v>
       </c>
       <c r="I26" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" s="54">
         <v>100000</v>
@@ -2374,7 +2507,7 @@
     </row>
     <row r="27" spans="1:18" ht="30.75" thickBot="1">
       <c r="A27" s="49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" s="49">
         <v>3</v>
@@ -2383,23 +2516,23 @@
         <v>0.5</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="49" t="str">
         <f>CONCATENATE("sim",A27,"_way",B27,".mat")</f>
         <v>simPL0001_2_way3.mat</v>
       </c>
       <c r="F27" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G27" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H27" s="53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I27" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27" s="54">
         <v>100000</v>
@@ -2409,9 +2542,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30.75" thickBot="1">
+    <row r="28" spans="1:18" ht="30">
       <c r="A28" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="49">
         <v>1</v>
@@ -2420,23 +2553,23 @@
         <v>0.5</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="49" t="str">
         <f>CONCATENATE("sim",A28,"_way",B28,".mat")</f>
         <v>simPL0001_3_way1.mat</v>
       </c>
-      <c r="F28" s="52" t="s">
-        <v>110</v>
+      <c r="F28" s="55" t="s">
+        <v>109</v>
       </c>
       <c r="G28" s="53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H28" s="53" t="s">
         <v>43</v>
       </c>
       <c r="I28" s="53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J28" s="54">
         <v>100000</v>
@@ -2446,82 +2579,242 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="90.75" thickBot="1">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:18" ht="90">
+      <c r="A29" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="57">
+        <v>3</v>
+      </c>
+      <c r="C29" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="62" t="str">
+        <f>CONCATENATE("sim_",A29,".mat")</f>
+        <v>sim_PBC.mat</v>
+      </c>
+      <c r="F29" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="42">
-        <v>3</v>
-      </c>
-      <c r="C29" s="43">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="44" t="s">
+      <c r="H29" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="F29" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I29" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="J29" s="54">
-        <v>100000</v>
+      <c r="I29" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="61">
+        <v>600</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="P29" s="4">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="15.75" thickBot="1">
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
+    <row r="30" spans="1:18" ht="90">
+      <c r="A30" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="57">
+        <v>3</v>
+      </c>
+      <c r="C30" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="62" t="str">
+        <f t="shared" ref="E30:E32" si="3">CONCATENATE("sim_",A30,".mat")</f>
+        <v>sim_noCtrl.mat</v>
+      </c>
+      <c r="F30" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="61">
+        <v>600</v>
+      </c>
       <c r="P30" s="4">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="30.75" thickBot="1">
-      <c r="F31" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="47"/>
+    <row r="31" spans="1:18" ht="90">
+      <c r="A31" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B31" s="57">
+        <v>3</v>
+      </c>
+      <c r="C31" s="58">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>sim_VVC.mat</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" s="61">
+        <v>600</v>
+      </c>
       <c r="P31" s="4">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" thickBot="1">
-      <c r="F32" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I32" s="48"/>
+    <row r="32" spans="1:18" ht="90">
+      <c r="A32" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="64">
+        <v>3</v>
+      </c>
+      <c r="C32" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>sim_dVVC.mat</v>
+      </c>
+      <c r="F32" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="J32" s="68">
+        <v>600</v>
+      </c>
       <c r="P32" s="4">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
+    </row>
+    <row r="33" spans="1:16" s="69" customFormat="1" ht="90">
+      <c r="A33" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="69">
+        <v>3</v>
+      </c>
+      <c r="C33" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="69" t="str">
+        <f>CONCATENATE("sim_",A33,"_way",B33,".mat")</f>
+        <v>sim_multAct_way3.mat</v>
+      </c>
+      <c r="F33" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>131</v>
+      </c>
+      <c r="I33" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="J33" s="54">
+        <v>100000</v>
+      </c>
+      <c r="P33" s="69">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="75.75" thickBot="1">
+      <c r="F34" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" s="74"/>
+      <c r="I34" s="47"/>
+      <c r="P34" s="4">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" thickBot="1">
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="48"/>
+      <c r="P35" s="4">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" thickBot="1">
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+    </row>
+    <row r="37" spans="1:16" ht="15.75" thickBot="1">
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="F40" s="76"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/init.xlsx
+++ b/init.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaimie.Swartz\OPAL-RT\RT-LABv11.3_Workspace\ENERGISE_v1\models\LPBC_PIcontroller_IEEE13_v17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaimie.Swartz\OPAL-RT\RT-LABv11.3_Workspace\ENERGISE_v1\models\LPBC_PIcontroller_IEEE13_v17\filesPerFeeder\PL0001\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="6270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9030" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jaimie.Swartz:</t>
         </r>
@@ -47,7 +47,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 used to be 633</t>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jaimie.Swartz:</t>
         </r>
@@ -71,7 +71,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 used to be 633</t>
@@ -86,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jaimie.Swartz:</t>
         </r>
@@ -95,7 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 used to be 633</t>
@@ -110,7 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jaimie.Swartz:</t>
         </r>
@@ -119,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 used to be 633</t>
@@ -134,7 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jaimie.Swartz:</t>
         </r>
@@ -143,7 +143,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 used to be 633</t>
@@ -158,7 +158,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Jaimie.Swartz:</t>
         </r>
@@ -167,10 +167,206 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 used to be 633</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+end of feeder</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+end of feeder
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+close to head of feeder
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F51" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">
+used to be 633</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used to be 633</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+used to be 633</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+end of feeder</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F55" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jaimie.Swartz:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+end of feeder</t>
         </r>
       </text>
     </comment>
@@ -179,7 +375,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="193">
   <si>
     <t>Test Settings (read this into RTlab)</t>
   </si>
@@ -221,12 +417,6 @@
   </si>
   <si>
     <t>675/P1,675/P2,675/P3,675/Q1,675/Q2,675/Q3</t>
-  </si>
-  <si>
-    <t>633_a,633_b,633_c</t>
-  </si>
-  <si>
-    <t>Adam1</t>
   </si>
   <si>
     <t>actuator limits</t>
@@ -503,9 +693,6 @@
     <t>0:00-0:05</t>
   </si>
   <si>
-    <t>300053281/P1,300053281/Q1,300053281/P2,300053281/Q2,300053281/P3,300053281/Q3</t>
-  </si>
-  <si>
     <t>300063907/P1,300063907/Q1,300063907/P2,300063907/Q2,300063907/P3,300063907/Q3</t>
   </si>
   <si>
@@ -518,15 +705,9 @@
     <t>PL0001_2</t>
   </si>
   <si>
-    <t>300053281/P2,300053281/Q2,300053281/P3,300053281/Q3</t>
-  </si>
-  <si>
     <t>PL0001_3</t>
   </si>
   <si>
-    <t>300053286/P1,300053286/Q1,300053286/P2,300053286/Q2,300053286/P3,300053286/Q3</t>
-  </si>
-  <si>
     <t>671/P1,671/Q1,671/P2,671/Q2,671/P3,671/Q3</t>
   </si>
   <si>
@@ -548,27 +729,6 @@
     <t>ku=1.5,Tu=2.2;Ku=0.07,Tu=2</t>
   </si>
   <si>
-    <t>675_a,675_b,675_c,645_b,646_b,652_a,634_a,634_b,634_c,632_a,632_b,632_c,692_c</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13</t>
-  </si>
-  <si>
-    <t>675/P1,675/P2,675/P3,645/P1,646/P1,652/P1,634/P1,634/P2,634/P3,632/P1,632/P2,632/P3,692/P1,675/Q1,675/Q2,675/Q3,645/Q1,646/Q1,652/Q1,634/Q1,634/Q2,634/Q3,632/Q1,632/Q2,632/Q3,692/Q1</t>
-  </si>
-  <si>
-    <t>PBC</t>
-  </si>
-  <si>
-    <t>noCtrl</t>
-  </si>
-  <si>
-    <t>VVC</t>
-  </si>
-  <si>
-    <t>dVVC</t>
-  </si>
-  <si>
     <t>units: kW, per phase</t>
   </si>
   <si>
@@ -588,13 +748,220 @@
   </si>
   <si>
     <t>if you want a full list of all actuators --&gt;</t>
+  </si>
+  <si>
+    <t>singleAct_MIMO</t>
+  </si>
+  <si>
+    <t>multAct_MIMO_sat</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>675_a,675_b,675_c,646_b,652_a,634_a,634_b,634_c</t>
+  </si>
+  <si>
+    <t>675/P1,675/P2,675/P3,646/P1,652/P1,634/P1,634/P2,634/P3,675/Q1,675/Q2,675/Q3,646/Q1,652/Q1,634/Q1,634/Q2,634/Q3</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+  </si>
+  <si>
+    <t>AL0001_1</t>
+  </si>
+  <si>
+    <t>sim_AL0001_1.mat</t>
+  </si>
+  <si>
+    <t>SISO_onePerf</t>
+  </si>
+  <si>
+    <t>dbcData_sim_PBC_v2</t>
+  </si>
+  <si>
+    <t>675_a,675_b,675_c,632_a,632_b,632_c,634_a,634_b,634_c,671_a,671_b,671_c</t>
+  </si>
+  <si>
+    <t>675/P1,675/P2,675/P3,632/P1,632/P2,632/P3,634/P1,634/P2,634/P3,671/P1,671/P2,671/P3,675/Q1,675/Q2,675/Q3,632/Q1,632/Q2,632/Q3,634/Q1,634/Q2,634/Q3,671/Q1,671/Q2,671/Q3</t>
+  </si>
+  <si>
+    <t>675/P1,675/P2,675/P3,632/P1,632/P2,632/P3,634/P1,634/P2,634/P3,671/P1,671/P2,671/P3,652/P1,646/P1,692/P1,675/Q1,675/Q2,675/Q3,632/Q1,632/Q2,632/Q3,634/Q1,634/Q2,634/Q3,671/Q1,671/Q2,671/Q3,652/Q1,646/Q1,692/Q1</t>
+  </si>
+  <si>
+    <t>AL0001_2</t>
+  </si>
+  <si>
+    <t>sim_AL0001_2.mat</t>
+  </si>
+  <si>
+    <t>N_900010659_A,N_900010659_B,N_900010659_C</t>
+  </si>
+  <si>
+    <t>900010659/P1,900010659/P2,900010659/P3,900010659/Q1,900010659/Q2,900010659/Q3</t>
+  </si>
+  <si>
+    <t>9:00-15:00</t>
+  </si>
+  <si>
+    <t>VVC_6hr</t>
+  </si>
+  <si>
+    <t>PBC_6hr</t>
+  </si>
+  <si>
+    <t>noCtrl_6hr</t>
+  </si>
+  <si>
+    <t>dVVC_6hr</t>
+  </si>
+  <si>
+    <t>13:00-13:05</t>
+  </si>
+  <si>
+    <t>N_900011845_A,N_900011845_B,N_900011845_C</t>
+  </si>
+  <si>
+    <t>900011845/P1,900011845/P2,900011845/P3,900011845/Q1,900011845/Q2,900011845/Q3</t>
+  </si>
+  <si>
+    <t>300053281/P1,300053281/P2,300053281/P3,300053281/Q1,300053281/Q2,300053281/Q3</t>
+  </si>
+  <si>
+    <t>300053281/P2,300053281/P3,300053281/Q2,300053281/Q3</t>
+  </si>
+  <si>
+    <t>300053281_B,300053281_C</t>
+  </si>
+  <si>
+    <t>300053286/P1,300053286/P2,300053286/P3,300053286/Q1,300053286/Q2,300053286/Q3</t>
+  </si>
+  <si>
+    <t>300053286_A,300053286_B,300053286_C</t>
+  </si>
+  <si>
+    <t>PL0001_4</t>
+  </si>
+  <si>
+    <t>123_1</t>
+  </si>
+  <si>
+    <t>65_a,65_b,65_c</t>
+  </si>
+  <si>
+    <t>65/P1,65/P2,65/P3,65/Q1,65/Q2,65/Q3</t>
+  </si>
+  <si>
+    <t>76/P1,76/P2,76/P3,76/Q1,76/Q2,76/Q3</t>
+  </si>
+  <si>
+    <t>300062503_A,300062503_B,300062503_C</t>
+  </si>
+  <si>
+    <t>300062503/P1,300062503/P2,300062503/P3,300062503/Q1,300062503/Q2,300062503/Q3</t>
+  </si>
+  <si>
+    <t>sim_AL0001_Max.mat</t>
+  </si>
+  <si>
+    <t>AL0001_Max</t>
+  </si>
+  <si>
+    <t>PL0001_5</t>
+  </si>
+  <si>
+    <t>PL0001_6</t>
+  </si>
+  <si>
+    <t>300063911_A,300063911_B,300063911_C</t>
+  </si>
+  <si>
+    <t>300063911/P1,300063911/P2,300063911/P3,300063911/Q1,300063911/Q2,300063911/Q3</t>
+  </si>
+  <si>
+    <t>13_simple</t>
+  </si>
+  <si>
+    <t>MC0001_1</t>
+  </si>
+  <si>
+    <t>simMC0001_1.m</t>
+  </si>
+  <si>
+    <t>1200157273_A,1200157273_B,1200157273_C</t>
+  </si>
+  <si>
+    <t>1200157273/P1,1200157273/P2,1200157273/P3,1200157273/Q1,1200157273/Q2,1200157273/Q3</t>
+  </si>
+  <si>
+    <t>123_2</t>
+  </si>
+  <si>
+    <t>13NF_652</t>
+  </si>
+  <si>
+    <t>652_a,652_b,652_c</t>
+  </si>
+  <si>
+    <t>652/P1,652/P2,652/P3,652/Q1,652/Q2,652/Q3</t>
+  </si>
+  <si>
+    <t>646/P1,646/P2,646/P3,646/Q1,646/Q2,646/Q3</t>
+  </si>
+  <si>
+    <t>646_a,646_b,646_c</t>
+  </si>
+  <si>
+    <t>13NF_646</t>
+  </si>
+  <si>
+    <t>sunny_1_PIway3.mat</t>
+  </si>
+  <si>
+    <t>sunny_1</t>
+  </si>
+  <si>
+    <t>14:00-14:05</t>
+  </si>
+  <si>
+    <t>Rainy_1_topology</t>
+  </si>
+  <si>
+    <t>633_a,633_b,633_c</t>
+  </si>
+  <si>
+    <t>Rainy_2_100pen</t>
+  </si>
+  <si>
+    <t>Rainy_2_150pen</t>
+  </si>
+  <si>
+    <t>12:03-12:18</t>
+  </si>
+  <si>
+    <t>PL0001_7</t>
+  </si>
+  <si>
+    <t>300062300_A,300062300_B,300062300_C</t>
+  </si>
+  <si>
+    <t>300062300/P1,300062300/P2,300062300/P3,300062300/Q1,300062300/Q2,300062300/Q3</t>
+  </si>
+  <si>
+    <t>PL0001_8</t>
+  </si>
+  <si>
+    <t>300062392/P1,300062392/P2,300062392/Q1,300062392/Q2</t>
+  </si>
+  <si>
+    <t>300062392_A,300062392_B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,17 +985,52 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,8 +1091,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -944,11 +1376,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1085,9 +1543,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1129,14 +1584,8 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1151,24 +1600,53 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1530,43 +2008,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="16.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" style="4" customWidth="1"/>
+    <col min="1" max="4" width="16.41796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="18.68359375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="38.578125" style="4" customWidth="1"/>
     <col min="7" max="8" width="51" style="4" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="9" width="43.578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="9.15625" style="4"/>
+    <col min="16" max="16" width="9.15625" style="75"/>
+    <col min="17" max="16384" width="9.15625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1">
+    <row r="1" spans="1:18" ht="14.7" thickBot="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:18" ht="45.75" thickBot="1">
+    <row r="2" spans="1:18" ht="43.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
@@ -1584,27 +2064,27 @@
         <v>5</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="120.75" thickBot="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="86.7" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="7" t="s">
@@ -1614,25 +2094,25 @@
         <v>8</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="30.75" thickBot="1">
+        <v>117</v>
+      </c>
+      <c r="P3" s="75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="29.1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +2152,7 @@
     </row>
     <row r="5" spans="1:18" ht="29.25" customHeight="1" thickBot="1">
       <c r="A5" s="13" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="B5" s="14">
         <v>3</v>
@@ -1681,40 +2161,39 @@
         <v>0.5</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="17" t="str">
-        <f>CONCATENATE("sim",A5,"_pbcCtrl")</f>
-        <v>simAdam1_pbcCtrl</v>
+        <v>181</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J5" s="20">
         <v>10000</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" s="4">
+        <v>92</v>
+      </c>
+      <c r="P5" s="75">
         <v>1</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="36" customHeight="1" thickBot="1">
       <c r="A6" s="37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="38">
         <v>1</v>
@@ -1723,19 +2202,19 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>21</v>
-      </c>
       <c r="G6" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>12</v>
@@ -1743,14 +2222,14 @@
       <c r="J6" s="22">
         <v>10000</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="75">
         <f>P5+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" thickBot="1">
+    <row r="7" spans="1:18" ht="14.7" thickBot="1">
       <c r="A7" s="37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="42">
         <v>1</v>
@@ -1759,34 +2238,34 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="H7" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>23</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="41" t="s">
-        <v>25</v>
       </c>
       <c r="J7" s="22">
         <v>600</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="75">
         <f t="shared" ref="P7:P14" si="1">P6+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30.75" thickBot="1">
+    <row r="8" spans="1:18" ht="29.1" thickBot="1">
       <c r="A8" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="42">
         <v>1</v>
@@ -1795,32 +2274,32 @@
         <v>0.5</v>
       </c>
       <c r="D8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="H8" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="41" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>28</v>
       </c>
       <c r="J8" s="22">
         <v>600</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="75">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" thickBot="1">
+    <row r="9" spans="1:18" ht="14.7" thickBot="1">
       <c r="A9" s="37">
         <v>9</v>
       </c>
@@ -1831,33 +2310,33 @@
         <v>0.5</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>34</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J9" s="45">
         <v>10000</v>
       </c>
       <c r="K9" s="12"/>
-      <c r="P9" s="4">
+      <c r="P9" s="75">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" thickBot="1">
+    <row r="10" spans="1:18" ht="14.7" thickBot="1">
       <c r="A10" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="27">
         <v>1</v>
@@ -1866,37 +2345,37 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="30">
         <v>1</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J10" s="31">
         <v>10000</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="P10" s="4">
+        <v>53</v>
+      </c>
+      <c r="P10" s="75">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" thickBot="1">
+    <row r="11" spans="1:18" ht="14.7" thickBot="1">
       <c r="A11" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="27">
         <v>3</v>
@@ -1905,35 +2384,35 @@
         <v>0.35</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="30">
         <v>1</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J11" s="32">
         <v>500</v>
       </c>
       <c r="K11" s="26"/>
-      <c r="P11" s="4">
+      <c r="P11" s="75">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" thickBot="1">
+    <row r="12" spans="1:18" ht="14.7" thickBot="1">
       <c r="A12" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B12" s="33">
         <v>3</v>
@@ -1942,38 +2421,38 @@
         <v>0.35</v>
       </c>
       <c r="D12" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>42</v>
-      </c>
       <c r="I12" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J12" s="35">
         <v>500</v>
       </c>
       <c r="K12" s="26"/>
       <c r="M12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="P12" s="4">
+        <v>84</v>
+      </c>
+      <c r="P12" s="75">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15.75" thickBot="1">
+    <row r="13" spans="1:18" ht="14.7" thickBot="1">
       <c r="A13" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13" s="33">
         <v>3</v>
@@ -1982,38 +2461,38 @@
         <v>0.35</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J13" s="35">
         <v>500</v>
       </c>
       <c r="K13" s="26"/>
       <c r="M13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="P13" s="4">
+        <v>80</v>
+      </c>
+      <c r="P13" s="75">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1">
+    <row r="14" spans="1:18" ht="14.7" thickBot="1">
       <c r="A14" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="33">
         <v>3</v>
@@ -2022,35 +2501,35 @@
         <v>0.35</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H14" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J14" s="35">
         <v>10000</v>
       </c>
       <c r="K14" s="26"/>
-      <c r="P14" s="4">
+      <c r="P14" s="75">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" thickBot="1">
+    <row r="15" spans="1:18" ht="14.7" thickBot="1">
       <c r="A15" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="33">
         <v>3</v>
@@ -2059,35 +2538,35 @@
         <v>0.35</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>105</v>
-      </c>
       <c r="G15" s="29" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H15" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J15" s="35">
         <v>10000</v>
       </c>
       <c r="K15" s="26"/>
-      <c r="P15" s="4">
+      <c r="P15" s="75">
         <f>P14+1</f>
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15.75" thickBot="1">
+    <row r="16" spans="1:18" ht="14.7" thickBot="1">
       <c r="A16" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" s="17">
         <v>1</v>
@@ -2096,35 +2575,35 @@
         <v>0.5</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J16" s="24">
         <v>10000</v>
       </c>
       <c r="K16" s="26"/>
-      <c r="P16" s="4">
-        <f t="shared" ref="P16:P35" si="2">P15+1</f>
+      <c r="P16" s="75">
+        <f t="shared" ref="P16:P56" si="2">P15+1</f>
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" thickBot="1">
+    <row r="17" spans="1:18" ht="14.7" thickBot="1">
       <c r="A17" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="27">
         <v>1</v>
@@ -2133,40 +2612,40 @@
         <v>0.5</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J17" s="31">
         <v>10000</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" s="4">
+        <v>65</v>
+      </c>
+      <c r="P17" s="75">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" thickBot="1">
+    <row r="18" spans="1:18" ht="14.7" thickBot="1">
       <c r="A18" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="27">
         <v>1</v>
@@ -2175,40 +2654,40 @@
         <v>0.5</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H18" s="30">
         <v>3</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J18" s="31">
         <v>10000</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P18" s="4">
+        <v>67</v>
+      </c>
+      <c r="P18" s="75">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" thickBot="1">
+    <row r="19" spans="1:18" ht="14.7" thickBot="1">
       <c r="A19" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="27">
         <v>1</v>
@@ -2217,35 +2696,35 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H19" s="30">
         <v>2</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J19" s="31">
         <v>10000</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="P19" s="4">
+      <c r="P19" s="75">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" thickBot="1">
+    <row r="20" spans="1:18" ht="14.7" thickBot="1">
       <c r="A20" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="27">
         <v>1</v>
@@ -2254,35 +2733,35 @@
         <v>0.5</v>
       </c>
       <c r="D20" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>42</v>
-      </c>
       <c r="I20" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J20" s="31">
         <v>10000</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="P20" s="4">
+      <c r="P20" s="75">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" thickBot="1">
+    <row r="21" spans="1:18" ht="14.7" thickBot="1">
       <c r="A21" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B21" s="27">
         <v>1</v>
@@ -2291,35 +2770,35 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E21" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H21" s="30" t="s">
-        <v>76</v>
-      </c>
       <c r="I21" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J21" s="31">
         <v>10000</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="P21" s="4">
+      <c r="P21" s="75">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" thickBot="1">
+    <row r="22" spans="1:18" ht="14.7" thickBot="1">
       <c r="A22" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B22" s="27">
         <v>1</v>
@@ -2328,35 +2807,35 @@
         <v>0.5</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E22" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>80</v>
-      </c>
       <c r="I22" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J22" s="31">
         <v>10000</v>
       </c>
       <c r="K22" s="26"/>
-      <c r="P22" s="4">
+      <c r="P22" s="75">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18.75" customHeight="1" thickBot="1">
       <c r="A23" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="26">
         <v>3</v>
@@ -2365,19 +2844,19 @@
         <v>0.35</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I23" s="29" t="s">
         <v>13</v>
@@ -2386,14 +2865,14 @@
         <v>500</v>
       </c>
       <c r="K23" s="26"/>
-      <c r="P23" s="4">
+      <c r="P23" s="75">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" thickBot="1">
+    <row r="24" spans="1:18" ht="14.7" thickBot="1">
       <c r="A24" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B24" s="14">
         <v>3</v>
@@ -2402,38 +2881,38 @@
         <v>0.5</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E24" s="17" t="str">
         <f>CONCATENATE("sim",A24,"_way",B24,".mat")</f>
         <v>simAdam2_way3.mat</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J24" s="20">
         <v>10000</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="75">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="15.75" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="14.7" thickBot="1">
       <c r="A25" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="14">
         <v>3</v>
@@ -2442,379 +2921,1109 @@
         <v>0.5</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E25" s="17" t="str">
         <f>CONCATENATE("sim",A25,"_way",B25,".mat")</f>
         <v>simAdam3_way3.mat</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J25" s="20">
         <v>10000</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="75">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A26" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="49">
-        <v>1</v>
-      </c>
-      <c r="C26" s="50">
+    <row r="26" spans="1:18" ht="29.1" thickBot="1">
+      <c r="A26" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="48">
+        <v>3</v>
+      </c>
+      <c r="C26" s="49">
         <v>0.5</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="48" t="str">
+        <f>CONCATENATE("sim",A26,"_way",B26,".mat")</f>
+        <v>simPL0001_1_way3.mat</v>
+      </c>
+      <c r="F26" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="49" t="str">
-        <f>CONCATENATE("sim",A26,"_way",B26,".mat")</f>
-        <v>simPL0001_1_way1.mat</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="54">
+      <c r="G26" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="53">
         <v>100000</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="75">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="30.75" thickBot="1">
-      <c r="A27" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="49">
+    <row r="27" spans="1:18" ht="29.1" thickBot="1">
+      <c r="A27" s="48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="48">
         <v>3</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C27" s="49">
         <v>0.5</v>
       </c>
-      <c r="D27" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="49" t="str">
+      <c r="D27" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="48" t="str">
         <f>CONCATENATE("sim",A27,"_way",B27,".mat")</f>
         <v>simPL0001_2_way3.mat</v>
       </c>
-      <c r="F27" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>112</v>
-      </c>
-      <c r="H27" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="J27" s="54">
+      <c r="F27" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="53">
         <v>100000</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="75">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="30">
-      <c r="A28" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="49">
-        <v>1</v>
-      </c>
-      <c r="C28" s="50">
+    <row r="28" spans="1:18" ht="28.8">
+      <c r="A28" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="48">
+        <v>3</v>
+      </c>
+      <c r="C28" s="49">
         <v>0.5</v>
       </c>
-      <c r="D28" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="49" t="str">
+      <c r="D28" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28" s="48" t="str">
         <f>CONCATENATE("sim",A28,"_way",B28,".mat")</f>
-        <v>simPL0001_3_way1.mat</v>
-      </c>
-      <c r="F28" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="H28" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="J28" s="54">
+        <v>simPL0001_3_way3.mat</v>
+      </c>
+      <c r="F28" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="H28" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28" s="53">
         <v>100000</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="75">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="90">
-      <c r="A29" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="57">
+    <row r="29" spans="1:18" ht="86.4">
+      <c r="A29" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="56">
         <v>3</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="57">
         <v>0.5</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="61" t="str">
+        <f>CONCATENATE("sim_",A29,".mat")</f>
+        <v>sim_PBC_6hr.mat</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="G29" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="60">
+        <v>600</v>
+      </c>
+      <c r="M29" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="62" t="str">
-        <f>CONCATENATE("sim_",A29,".mat")</f>
-        <v>sim_PBC.mat</v>
-      </c>
-      <c r="F29" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="G29" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="J29" s="61">
-        <v>600</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="P29" s="4">
+      <c r="P29" s="75">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="90">
-      <c r="A30" s="56" t="s">
+    <row r="30" spans="1:18" ht="86.4">
+      <c r="A30" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="56">
+        <v>1</v>
+      </c>
+      <c r="C30" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="61" t="str">
+        <f t="shared" ref="E30:E32" si="3">CONCATENATE("sim_",A30,".mat")</f>
+        <v>sim_noCtrl_6hr.mat</v>
+      </c>
+      <c r="F30" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="57">
-        <v>3</v>
-      </c>
-      <c r="C30" s="58">
-        <v>0.5</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="E30" s="62" t="str">
-        <f t="shared" ref="E30:E32" si="3">CONCATENATE("sim_",A30,".mat")</f>
-        <v>sim_noCtrl.mat</v>
-      </c>
-      <c r="F30" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" s="61">
+      <c r="I30" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" s="60">
         <v>600</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="75">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="90">
-      <c r="A31" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="57">
+    <row r="31" spans="1:18" ht="86.4">
+      <c r="A31" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="56">
         <v>3</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="57">
         <v>0.5</v>
       </c>
-      <c r="D31" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="E31" s="62" t="str">
+      <c r="D31" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>sim_VVC.mat</v>
-      </c>
-      <c r="F31" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="J31" s="61">
+        <v>sim_VVC_6hr.mat</v>
+      </c>
+      <c r="F31" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="G31" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="H31" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="J31" s="60">
         <v>600</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="75">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="90">
-      <c r="A32" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="64">
-        <v>3</v>
-      </c>
-      <c r="C32" s="65">
+    <row r="32" spans="1:18" ht="86.4">
+      <c r="A32" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B32" s="56">
+        <v>1</v>
+      </c>
+      <c r="C32" s="63">
         <v>0.5</v>
       </c>
-      <c r="D32" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="62" t="str">
+      <c r="D32" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" s="61" t="str">
         <f t="shared" si="3"/>
-        <v>sim_dVVC.mat</v>
-      </c>
-      <c r="F32" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="H32" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J32" s="68">
+        <v>sim_dVVC_6hr.mat</v>
+      </c>
+      <c r="F32" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="I32" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="65">
         <v>600</v>
       </c>
-      <c r="P32" s="4">
+      <c r="P32" s="75">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="69" customFormat="1" ht="90">
-      <c r="A33" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="B33" s="69">
+    <row r="33" spans="1:17" s="66" customFormat="1" ht="86.4">
+      <c r="A33" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="66">
         <v>3</v>
       </c>
-      <c r="C33" s="70">
+      <c r="C33" s="67">
         <v>0.5</v>
       </c>
-      <c r="D33" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="69" t="str">
+      <c r="D33" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="66" t="str">
         <f>CONCATENATE("sim_",A33,"_way",B33,".mat")</f>
         <v>sim_multAct_way3.mat</v>
       </c>
-      <c r="F33" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="G33" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="H33" s="69" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="71" t="s">
+      <c r="F33" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="J33" s="54">
+      <c r="H33" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="J33" s="53">
         <v>100000</v>
       </c>
-      <c r="P33" s="69">
+      <c r="O33" s="73"/>
+      <c r="P33" s="66">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" ht="75.75" thickBot="1">
-      <c r="F34" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="74"/>
+      <c r="Q33" s="74"/>
+    </row>
+    <row r="34" spans="1:17" ht="72.3" thickBot="1">
+      <c r="F34" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="69"/>
       <c r="I34" s="47"/>
-      <c r="P34" s="4">
+      <c r="P34" s="75">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" thickBot="1">
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="48"/>
-      <c r="P35" s="4">
+    <row r="35" spans="1:17" ht="86.4">
+      <c r="A35" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="66">
+        <v>3</v>
+      </c>
+      <c r="C35" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="66" t="str">
+        <f>CONCATENATE("sim_",A35,"_way",B35,".mat")</f>
+        <v>sim_multAct_MIMO_sat_way3.mat</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="H35" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" s="53">
+        <v>600</v>
+      </c>
+      <c r="P35" s="75">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75" thickBot="1">
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-    </row>
-    <row r="37" spans="1:16" ht="15.75" thickBot="1">
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="F40" s="76"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="48"/>
+    <row r="36" spans="1:17" ht="86.4">
+      <c r="A36" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="66">
+        <v>3</v>
+      </c>
+      <c r="C36" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="66" t="str">
+        <f>CONCATENATE("sim_",A36,"_way",B36,".mat")</f>
+        <v>sim_singleAct_MIMO_way3.mat</v>
+      </c>
+      <c r="F36" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="68" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="53">
+        <v>100000</v>
+      </c>
+      <c r="P36" s="75">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="86.4">
+      <c r="A37" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="56">
+        <v>3</v>
+      </c>
+      <c r="C37" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="61" t="str">
+        <f>CONCATENATE("sim_",A37,".mat")</f>
+        <v>sim_SISO_onePerf.mat</v>
+      </c>
+      <c r="F37" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="59" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="4">
+        <v>100000</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P37" s="75">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="78.75" customHeight="1">
+      <c r="A38" s="70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="70">
+        <v>1</v>
+      </c>
+      <c r="C38" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="H38" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J38" s="70">
+        <v>100000</v>
+      </c>
+      <c r="P38" s="75">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="43.2">
+      <c r="F39" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="P39" s="75">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="72" customHeight="1" thickBot="1">
+      <c r="A40" s="70" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="70">
+        <v>3</v>
+      </c>
+      <c r="C40" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H40" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="J40" s="70">
+        <v>100000</v>
+      </c>
+      <c r="P40" s="75">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="29.1" thickBot="1">
+      <c r="A41" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="48">
+        <v>3</v>
+      </c>
+      <c r="C41" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="48" t="str">
+        <f>CONCATENATE("sim",A41,"_way",B41,".mat")</f>
+        <v>simPL0001_4_way3.mat</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="H41" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="J41" s="53">
+        <v>100000</v>
+      </c>
+      <c r="P41" s="75">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="29.1" thickBot="1">
+      <c r="A42" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="48">
+        <v>3</v>
+      </c>
+      <c r="C42" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="48" t="str">
+        <f t="shared" ref="E42:E43" si="4">CONCATENATE("sim",A42,"_way",B42,".mat")</f>
+        <v>simPL0001_5_way3.mat</v>
+      </c>
+      <c r="F42" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="J42" s="53">
+        <v>100000</v>
+      </c>
+      <c r="P42" s="75">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="29.1" thickBot="1">
+      <c r="A43" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="48">
+        <v>3</v>
+      </c>
+      <c r="C43" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="48" t="str">
+        <f t="shared" si="4"/>
+        <v>simPL0001_6_way3.mat</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="H43" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="J43" s="53">
+        <v>100000</v>
+      </c>
+      <c r="P43" s="75">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44" s="4">
+        <v>3</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="48" t="str">
+        <f>CONCATENATE("sim",A44,"_way",B44,".mat")</f>
+        <v>sim123_1_way3.mat</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G44" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="68" t="s">
+        <v>157</v>
+      </c>
+      <c r="J44" s="53">
+        <v>100000</v>
+      </c>
+      <c r="P44" s="75">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="48" t="str">
+        <f>CONCATENATE("sim",A45,"_way",B45,".mat")</f>
+        <v>sim123_2_way1.mat</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G45" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="68" t="s">
+        <v>158</v>
+      </c>
+      <c r="J45" s="53">
+        <v>100000</v>
+      </c>
+      <c r="P45" s="75">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="14.7" thickBot="1">
+      <c r="A46" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="70">
+        <v>1</v>
+      </c>
+      <c r="C46" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="J46" s="70">
+        <v>100000</v>
+      </c>
+      <c r="P46" s="75">
+        <f>P45+1</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" s="48">
+        <v>3</v>
+      </c>
+      <c r="C47" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="48" t="str">
+        <f t="shared" ref="E47:E49" si="5">CONCATENATE("sim",A47,"_way",B47,".mat")</f>
+        <v>sim13_simple_way3.mat</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G47" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="53">
+        <v>100000</v>
+      </c>
+      <c r="P47" s="75">
+        <f>P46+1</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="14.7" thickBot="1">
+      <c r="A48" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="77">
+        <v>3</v>
+      </c>
+      <c r="C48" s="76">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="77" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="77" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="77" t="s">
+        <v>171</v>
+      </c>
+      <c r="J48" s="77">
+        <v>100000</v>
+      </c>
+      <c r="P48" s="75">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="14.7" thickBot="1">
+      <c r="A49" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="33">
+        <v>3</v>
+      </c>
+      <c r="C49" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="48" t="str">
+        <f t="shared" si="5"/>
+        <v>sim13NF_652_way3.mat</v>
+      </c>
+      <c r="F49" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="H49" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J49" s="35">
+        <v>500</v>
+      </c>
+      <c r="P49" s="75">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="14.7" thickBot="1">
+      <c r="A50" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="33">
+        <v>3</v>
+      </c>
+      <c r="C50" s="34">
+        <v>0.35</v>
+      </c>
+      <c r="D50" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="48" t="str">
+        <f t="shared" ref="E50" si="6">CONCATENATE("sim",A50,"_way",B50,".mat")</f>
+        <v>sim13NF_646_way3.mat</v>
+      </c>
+      <c r="F50" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="H50" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J50" s="35">
+        <v>500</v>
+      </c>
+      <c r="P50" s="75">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="14.7" thickBot="1">
+      <c r="A51" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="78">
+        <v>3</v>
+      </c>
+      <c r="C51" s="78">
+        <v>50</v>
+      </c>
+      <c r="D51" s="78" t="s">
+        <v>181</v>
+      </c>
+      <c r="E51" s="79" t="str">
+        <f>CONCATENATE("sim",A51,"_way",B51,".mat")</f>
+        <v>simRainy_1_topology_way3.mat</v>
+      </c>
+      <c r="F51" s="80" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="53">
+        <v>100000</v>
+      </c>
+      <c r="P51" s="75">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="14.7" thickBot="1">
+      <c r="A52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B52" s="4">
+        <v>3</v>
+      </c>
+      <c r="C52" s="82">
+        <v>1</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="79" t="str">
+        <f t="shared" ref="E52:E53" si="7">CONCATENATE("sim",A52,"_way",B52,".mat")</f>
+        <v>simRainy_2_100pen_way3.mat</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J52" s="20">
+        <v>10000</v>
+      </c>
+      <c r="P52" s="75">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="14.7" thickBot="1">
+      <c r="A53" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" s="4">
+        <v>3</v>
+      </c>
+      <c r="C53" s="82">
+        <v>1.5</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="79" t="str">
+        <f t="shared" si="7"/>
+        <v>simRainy_2_150pen_way3.mat</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53" s="20">
+        <v>10000</v>
+      </c>
+      <c r="P53" s="75">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="29.1" thickBot="1">
+      <c r="A54" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="48">
+        <v>3</v>
+      </c>
+      <c r="C54" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="48" t="str">
+        <f>CONCATENATE("sim",A54,"_way",B54,".mat")</f>
+        <v>simPL0001_7_way3.mat</v>
+      </c>
+      <c r="F54" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="G54" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="H54" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="J54" s="53">
+        <v>100000</v>
+      </c>
+      <c r="P54" s="75">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="28.8">
+      <c r="A55" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="48">
+        <v>3</v>
+      </c>
+      <c r="C55" s="49">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" s="48" t="str">
+        <f>CONCATENATE("sim",A55,"_way",B55,".mat")</f>
+        <v>simPL0001_8_way3.mat</v>
+      </c>
+      <c r="F55" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="G55" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="H55" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="J55" s="53">
+        <v>100000</v>
+      </c>
+      <c r="P55" s="75">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="P56" s="75">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="E57" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2833,7 +4042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
